--- a/docs/EPOS_DCAT-AP_Mapping.xlsx
+++ b/docs/EPOS_DCAT-AP_Mapping.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossana/Google Drive/EPOS INGV IT TEAM FOLDER/DCAT/MAPPING/EPOS_DCAT_AP_last/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossana/Documents/GitHub/EPOS-DCAT-AP/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18720"/>
   </bookViews>
   <sheets>
     <sheet name="Entity&amp;Properties&amp;Roles" sheetId="27" r:id="rId1"/>
@@ -3423,6 +3423,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3502,16 +3512,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3830,7 +3830,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.5" customWidth="1"/>
@@ -3927,10 +3927,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="286" t="s">
+      <c r="A13" s="290" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="288" t="s">
+      <c r="B13" s="292" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="211" t="s">
@@ -3939,20 +3939,20 @@
       <c r="D13" s="212" t="s">
         <v>393</v>
       </c>
-      <c r="E13" s="290" t="s">
+      <c r="E13" s="294" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="292"/>
-      <c r="B14" s="289"/>
+      <c r="A14" s="296"/>
+      <c r="B14" s="293"/>
       <c r="C14" s="211" t="s">
         <v>391</v>
       </c>
       <c r="D14" s="212" t="s">
         <v>393</v>
       </c>
-      <c r="E14" s="291"/>
+      <c r="E14" s="295"/>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="221" t="s">
@@ -4091,10 +4091,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="293" t="s">
+      <c r="A23" s="297" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="295" t="s">
+      <c r="B23" s="299" t="s">
         <v>154</v>
       </c>
       <c r="C23" s="214" t="s">
@@ -4108,8 +4108,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="294"/>
-      <c r="B24" s="296"/>
+      <c r="A24" s="298"/>
+      <c r="B24" s="300"/>
       <c r="C24" s="214" t="s">
         <v>395</v>
       </c>
@@ -4121,10 +4121,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="286" t="s">
+      <c r="A25" s="290" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="288" t="s">
+      <c r="B25" s="292" t="s">
         <v>335</v>
       </c>
       <c r="C25" s="214" t="s">
@@ -4133,20 +4133,20 @@
       <c r="D25" s="216" t="s">
         <v>395</v>
       </c>
-      <c r="E25" s="290" t="s">
+      <c r="E25" s="294" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="287"/>
-      <c r="B26" s="289"/>
+      <c r="A26" s="291"/>
+      <c r="B26" s="293"/>
       <c r="C26" s="214" t="s">
         <v>164</v>
       </c>
       <c r="D26" s="219" t="s">
         <v>395</v>
       </c>
-      <c r="E26" s="291"/>
+      <c r="E26" s="295"/>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="224" t="s">
@@ -4286,10 +4286,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="318" t="s">
+      <c r="A37" s="288" t="s">
         <v>431</v>
       </c>
-      <c r="B37" s="316" t="s">
+      <c r="B37" s="286" t="s">
         <v>419</v>
       </c>
       <c r="C37" s="278" t="s">
@@ -4301,8 +4301,8 @@
       <c r="E37" s="279"/>
     </row>
     <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="319"/>
-      <c r="B38" s="317"/>
+      <c r="A38" s="289"/>
+      <c r="B38" s="287"/>
       <c r="C38" s="229" t="s">
         <v>391</v>
       </c>
@@ -4313,16 +4313,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6142,16 +6142,16 @@
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="74"/>
-      <c r="B36" s="297"/>
-      <c r="C36" s="297"/>
-      <c r="D36" s="299"/>
+      <c r="B36" s="301"/>
+      <c r="C36" s="301"/>
+      <c r="D36" s="303"/>
       <c r="E36" s="257"/>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="74"/>
-      <c r="B37" s="298"/>
-      <c r="C37" s="298"/>
-      <c r="D37" s="298"/>
+      <c r="B37" s="302"/>
+      <c r="C37" s="302"/>
+      <c r="D37" s="302"/>
       <c r="E37" s="256"/>
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -7508,19 +7508,19 @@
       <c r="A6" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="300" t="s">
+      <c r="B6" s="304" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="302" t="s">
+      <c r="C6" s="306" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="304" t="s">
+      <c r="D6" s="308" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="307" t="s">
+      <c r="E6" s="311" t="s">
         <v>427</v>
       </c>
-      <c r="F6" s="306" t="s">
+      <c r="F6" s="310" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7528,11 +7528,11 @@
       <c r="A7" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="301"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="305"/>
-      <c r="E7" s="307"/>
-      <c r="F7" s="306"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="310"/>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
@@ -8811,19 +8811,19 @@
       <c r="A11" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="308" t="s">
+      <c r="B11" s="312" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="310" t="s">
+      <c r="C11" s="314" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="312" t="s">
+      <c r="D11" s="316" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="315" t="s">
+      <c r="E11" s="319" t="s">
         <v>428</v>
       </c>
-      <c r="F11" s="314" t="s">
+      <c r="F11" s="318" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8831,11 +8831,11 @@
       <c r="A12" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="309"/>
-      <c r="C12" s="311"/>
-      <c r="D12" s="313"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="314"/>
+      <c r="B12" s="313"/>
+      <c r="C12" s="315"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="318"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
